--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264958</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347747</v>
+        <v>9584464.643054398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8778504.334061949</v>
+        <v>8343623.815691859</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>123.0172992876057</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V2" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>57.96571614961795</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="X3" t="n">
-        <v>129.3420634549345</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.395679379570686</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V5" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.1189721502593</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.41405905276482</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>119.362414515198</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U8" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.527456720693524</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663199</v>
+        <v>127.429877995854</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>228.8563935857031</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>134.2367617546555</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>112.3108240354061</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.88137544946905</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>39.19398801432075</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294.3263193288737</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>191.4244549775994</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851002</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>158.0138250632583</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.512371780753</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>37.30041816355184</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>32.97950884736181</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>37.28707743115308</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>149.9901675479393</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2140,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>210.3533805543371</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>256.7877664710641</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2210,7 +2210,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>54.51165059784287</v>
+        <v>149.9901675479393</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>103.0375980111576</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>119.930740786685</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>119.1488185988158</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>219.1834685212292</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>52.80938221506449</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.2333827272359</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>219.1834685212292</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>231.619987930927</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2845,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>208.1183413816755</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>188.4885988745601</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>117.4137306658402</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>294.9618044614286</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>18.95720548927264</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>239.3348485454005</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>245.6036755614956</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100.4024279105249</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.50286836346307</v>
+        <v>134.5916654001853</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>168.1158122680962</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>67.11945298303219</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.6752559270063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>196.5107055231767</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>361.9219236266175</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3872,7 +3872,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>121.4856996582646</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>83.32727861849563</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>85.97636447957093</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>286.8517409876633</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>126.6623413033685</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458395</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588559</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735305</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="U2" t="n">
-        <v>463.1245860845257</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="V2" t="n">
-        <v>314.7951708434059</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="W2" t="n">
-        <v>314.7951708434059</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="X2" t="n">
-        <v>314.7951708434059</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.465755602286</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308.4065201693364</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0771049282165</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D3" t="n">
-        <v>160.0771049282165</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616815</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415666</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M3" t="n">
-        <v>286.538206975247</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530686</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1875401335673</v>
+        <v>355.9587375475837</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U3" t="n">
-        <v>587.3844843548345</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V3" t="n">
-        <v>587.3844843548345</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W3" t="n">
-        <v>587.3844843548345</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X3" t="n">
-        <v>456.7359354104562</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y3" t="n">
-        <v>456.7359354104562</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.396238631475</v>
+        <v>12.39899198127742</v>
       </c>
       <c r="C5" t="n">
-        <v>142.396238631475</v>
+        <v>12.39899198127742</v>
       </c>
       <c r="D5" t="n">
-        <v>142.396238631475</v>
+        <v>12.39899198127742</v>
       </c>
       <c r="E5" t="n">
-        <v>142.396238631475</v>
+        <v>12.39899198127742</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709669</v>
+        <v>12.39899198127742</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709669</v>
+        <v>12.39899198127742</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183029</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458397</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066254</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588559</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735304</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>352.1343256931675</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548345</v>
+        <v>352.1343256931675</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548345</v>
+        <v>352.1343256931675</v>
       </c>
       <c r="U5" t="n">
-        <v>439.0550691137147</v>
+        <v>238.8892144558708</v>
       </c>
       <c r="V5" t="n">
-        <v>290.7256538725949</v>
+        <v>125.6441032185741</v>
       </c>
       <c r="W5" t="n">
-        <v>142.396238631475</v>
+        <v>125.6441032185741</v>
       </c>
       <c r="X5" t="n">
-        <v>142.396238631475</v>
+        <v>125.6441032185741</v>
       </c>
       <c r="Y5" t="n">
-        <v>142.396238631475</v>
+        <v>12.39899198127742</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306.6116629013316</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="C6" t="n">
-        <v>306.6116629013316</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="D6" t="n">
-        <v>306.6116629013316</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="E6" t="n">
-        <v>158.2822476602117</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="F6" t="n">
-        <v>11.74768968709669</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616817</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5663946836085</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>248.1447726172889</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>393.5224324951104</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O6" t="n">
-        <v>511.7941057756092</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P6" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548345</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548345</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548345</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548345</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137147</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137147</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137147</v>
+        <v>108.7153067878048</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543243</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510274</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.841617006275</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="C8" t="n">
-        <v>393.841617006275</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="D8" t="n">
-        <v>393.841617006275</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="E8" t="n">
-        <v>393.841617006275</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227597</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="V8" t="n">
-        <v>393.841617006275</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="W8" t="n">
-        <v>393.841617006275</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="X8" t="n">
-        <v>393.841617006275</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.841617006275</v>
+        <v>139.3054217689662</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>174.2395019787611</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C9" t="n">
-        <v>174.2395019787611</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D9" t="n">
-        <v>174.2395019787611</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>50.41925783498756</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>386.8913402620005</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>742.4988570282153</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S9" t="n">
-        <v>742.4988570282153</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T9" t="n">
-        <v>553.0790720117305</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U9" t="n">
-        <v>363.6592869952458</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V9" t="n">
-        <v>363.6592869952458</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W9" t="n">
-        <v>363.6592869952458</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X9" t="n">
-        <v>174.2395019787611</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="Y9" t="n">
-        <v>174.2395019787611</v>
+        <v>303.8470563135668</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1661.795585684488</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.833068744076</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U11" t="n">
-        <v>2778.169331191494</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V11" t="n">
-        <v>2778.169331191494</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="W11" t="n">
-        <v>2425.400675921379</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.9349176603</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.795585684488</v>
+        <v>1256.985986688415</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1050.563411933286</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>842.7119117277527</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>634.9516129627989</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.0175235133541</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="C13" t="n">
-        <v>360.6423967967187</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="D13" t="n">
-        <v>360.6423967967187</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877106</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U13" t="n">
-        <v>410.0175235133541</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V13" t="n">
-        <v>410.0175235133541</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W13" t="n">
-        <v>410.0175235133541</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X13" t="n">
-        <v>410.0175235133541</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.0175235133541</v>
+        <v>191.2822901204862</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>812.620799934451</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>812.620799934451</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066531</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796417</v>
+        <v>1589.359971974385</v>
       </c>
       <c r="X14" t="n">
-        <v>2277.953133796417</v>
+        <v>1589.359971974385</v>
       </c>
       <c r="Y14" t="n">
-        <v>1887.813801820605</v>
+        <v>1199.220639998573</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>549.9573223213125</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>375.5042930401855</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>877.782583647702</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>877.782583647702</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>718.1726593413805</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.4482993600903</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877106</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877106</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V16" t="n">
-        <v>699.1203903877106</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W16" t="n">
-        <v>409.70322035075</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X16" t="n">
-        <v>409.70322035075</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y16" t="n">
-        <v>409.70322035075</v>
+        <v>193.4858359504288</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1238.038871968309</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C17" t="n">
-        <v>869.0763550278969</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D17" t="n">
-        <v>510.8106564211463</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>510.8106564211463</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>99.82475163153879</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>99.82475163153879</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3287.942107032248</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3287.942107032248</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>3034.411630306084</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539436</v>
+        <v>2703.348742962513</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2350.580087692399</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008242</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.63871203243</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.68248070098099</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5700,25 +5700,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438285</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V19" t="n">
-        <v>377.0996507379416</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W19" t="n">
-        <v>87.68248070098099</v>
+        <v>218.0173361775766</v>
       </c>
       <c r="X19" t="n">
-        <v>87.68248070098099</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.68248070098099</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1619.798686923957</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1250.836169983545</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2749.306514234005</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2396.53785896389</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>2396.53785896389</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y20" t="n">
-        <v>2006.398526988078</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158132</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438286</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V22" t="n">
-        <v>631.7841389438286</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W22" t="n">
-        <v>342.366968906868</v>
+        <v>218.0173361775766</v>
       </c>
       <c r="X22" t="n">
-        <v>287.3046955757135</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1367.627253016769</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1009.361554410019</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>623.5733018117744</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>212.5873970221668</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W23" t="n">
-        <v>2513.328941997116</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X23" t="n">
-        <v>2513.328941997116</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379417</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W25" t="n">
-        <v>87.6824807009811</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.112184968822</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C26" t="n">
-        <v>1108.149668028411</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D26" t="n">
-        <v>749.8839694216604</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>530.8408315400379</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>119.8549267504304</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.509627919559</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1477.112184968822</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C29" t="n">
-        <v>1108.149668028411</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D29" t="n">
-        <v>749.8839694216604</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E29" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
         <v>364.0957168234162</v>
@@ -6463,10 +6463,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C31" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218342</v>
@@ -6654,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W31" t="n">
-        <v>710.6664589680076</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X31" t="n">
-        <v>710.6664589680076</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="Y31" t="n">
-        <v>710.6664589680076</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3096.715425190973</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2765.652537847403</v>
+        <v>2663.843459782396</v>
       </c>
       <c r="W32" t="n">
-        <v>2765.652537847403</v>
+        <v>2311.074804512281</v>
       </c>
       <c r="X32" t="n">
-        <v>2392.186779586323</v>
+        <v>1937.609046251202</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1547.46971427539</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.1346335501037</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>253.3636454708711</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>679.1346335501037</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>679.1346335501037</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>679.1346335501037</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>679.1346335501037</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y34" t="n">
-        <v>679.1346335501037</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1523.222118183415</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="C35" t="n">
-        <v>1523.222118183415</v>
+        <v>1813.303537713133</v>
       </c>
       <c r="D35" t="n">
-        <v>1164.956419576664</v>
+        <v>1455.037839106383</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1681669784198</v>
+        <v>1069.249586508138</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3224.189227760155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3224.189227760155</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>2970.658751033991</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>2639.595863690421</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W35" t="n">
-        <v>2286.827208420306</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X35" t="n">
-        <v>1913.361450159226</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y35" t="n">
-        <v>1523.222118183415</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>679.1346335501037</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>860.7830983803434</v>
+        <v>784.9358286462807</v>
       </c>
       <c r="V37" t="n">
-        <v>860.7830983803434</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="W37" t="n">
-        <v>860.7830983803434</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="X37" t="n">
-        <v>860.7830983803434</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="Y37" t="n">
-        <v>860.7830983803434</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2175.400891308157</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1806.438374367745</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1448.172675760994</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.38442316275</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>651.3985183731427</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>236.3260682181391</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X38" t="n">
-        <v>2952.14006334809</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y38" t="n">
-        <v>2562.000731372279</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.4020639300938</v>
+        <v>450.1356741135887</v>
       </c>
       <c r="C40" t="n">
-        <v>213.4020639300938</v>
+        <v>281.1994911856818</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300938</v>
+        <v>281.1994911856818</v>
       </c>
       <c r="E40" t="n">
         <v>213.4020639300938</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>791.9221008414108</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>502.8192339670544</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>502.8192339670544</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W40" t="n">
-        <v>213.4020639300938</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X40" t="n">
-        <v>213.4020639300938</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.4020639300938</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1133.063032281949</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>722.0771274923411</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>307.0046773373376</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
@@ -7414,13 +7414,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2403.038273524209</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X41" t="n">
-        <v>2037.460572891262</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y41" t="n">
-        <v>1647.321240915451</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>189.2249443698244</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7596,25 +7596,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>729.2011216450112</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>440.0982547706548</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>355.929286469144</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W43" t="n">
-        <v>66.5121164321834</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X43" t="n">
-        <v>66.5121164321834</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.5121164321834</v>
+        <v>189.2249443698244</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1308.370295943748</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>939.4077790033366</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>581.1420803965862</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>195.3538277983419</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>195.3538277983419</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7663,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>194.4538753244748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>342.366968906868</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X46" t="n">
-        <v>342.366968906868</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y46" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
-        <v>128.1636655838385</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V2" t="n">
-        <v>180.9061373814263</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>328.2722225064356</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>25.86237789960711</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.79895936669232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,28 +22670,28 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>170.0756958270784</v>
       </c>
       <c r="X3" t="n">
-        <v>76.430921748543</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>21.7289579877603</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.1089392838263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>277.5339822867769</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.4770305273054</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328738</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880636</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827356</v>
+        <v>139.079870129261</v>
       </c>
       <c r="V5" t="n">
-        <v>180.9061373814263</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W5" t="n">
-        <v>202.3948476287044</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.41421149960803</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>10.79895936669232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>37.57058809429805</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827331</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345808</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>40.54833922112491</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W6" t="n">
-        <v>104.848862072211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,55 +22956,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818781</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776027</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474364</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482526</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.76733623994067</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.8976208477874</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>287.5136312265134</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U8" t="n">
-        <v>85.99672338893581</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>241.5627819850113</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>21.85802697882505</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>28.03334231727345</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>64.90543890776968</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715761</v>
+        <v>78.34310720762343</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>61.00753910626207</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.39952676377791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>147.4787966532082</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>22.13877837319887</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>193.5154967154794</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>139.3841591255135</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>118.3654456491588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>179.390665337774</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.40752233460688</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>157.8165137398136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>47.66887071404605</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.319608401184269</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>181.2842351885429</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>261.6282555399587</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>71.90068435702275</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>146.2881604725182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>75.71948784109787</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>117.3988779157978</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>112.9433342074049</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>171.1980047911943</v>
+        <v>75.71948784109787</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>307.8841276422958</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.3071978693686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>132.9888247250122</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>163.5503731422513</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>358.112343438389</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>147.978455478377</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163.5503731422513</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>123.063053689756</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,19 +24894,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>78.40465695491554</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>30.09605447753466</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24973,19 +24973,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>133.5814412930618</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>32.79045400870632</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>127.4767571572965</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>46.87698966021239</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>161.2723701802158</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.785333877650942</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,10 +25368,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>226.7089698421498</v>
+        <v>151.6201728054276</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>79.31450966353698</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>91.87369334916289</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>98.0970588641438</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.809177051851577</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>44.54010860076366</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>168.8103647053324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>324.9453611738825</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>82.87935969080576</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>18.75870671956277</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259852</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>409992.2446053785</v>
+        <v>362616.6230072702</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409992.2446053785</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441595.0580613399</v>
+        <v>408111.9599248167</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.5900271861</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.590027186</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131506.9463828572</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>131506.9463828572</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>141643.6978687317</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
+        <v>219515.2902175503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>219515.2902175503</v>
+      </c>
+      <c r="G2" t="n">
         <v>279684.830763437</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>279684.830763437</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>279684.8307634371</v>
-      </c>
-      <c r="H2" t="n">
-        <v>279684.8307634371</v>
-      </c>
-      <c r="I2" t="n">
-        <v>279684.8307634372</v>
       </c>
       <c r="J2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="K2" t="n">
+        <v>279684.8307634371</v>
+      </c>
+      <c r="L2" t="n">
         <v>279684.830763437</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="O2" t="n">
         <v>279684.8307634369</v>
-      </c>
-      <c r="N2" t="n">
-        <v>279684.8307634371</v>
-      </c>
-      <c r="O2" t="n">
-        <v>279684.830763437</v>
       </c>
       <c r="P2" t="n">
         <v>279684.8307634371</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074443</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>394942.2080289242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>262827.3641644182</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613402</v>
+        <v>24245.22799179786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.21844239374</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904876</v>
+        <v>8241.27481335367</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678772</v>
+        <v>99043.58793293644</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.0851929092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
@@ -26511,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.1420374581</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.29293767233</v>
+        <v>46295.67344995515</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.23147926672</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957987994</v>
+        <v>-228144.0596041094</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.8478348679</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.8478348679</v>
+        <v>-58440.92048919766</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.8478348682</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.441328734</v>
+        <v>180141.2156834228</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.8478348679</v>
+        <v>199381.2252328269</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858193</v>
+        <v>196145.168861867</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699065</v>
+        <v>105342.8557422843</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.847834868</v>
+        <v>134769.3584823113</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572209</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568363</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>343.8814983365338</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761124</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887084</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582162</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761147</v>
+        <v>32.56249654611847</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359722</v>
+        <v>397.4398000551213</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>170.929937097644</v>
+        <v>148.8239625747597</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766338</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695511</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961054</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611126</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339634</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986736</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>200.3731410096119</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206854</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050587</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297036</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864957</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.2856027012083</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674035</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113012</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>235.9393707926325</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243146</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>36.95552968331378</v>
+        <v>14.84955516042941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592124</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.7718465704379</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718123</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.125993899784</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040809</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431463</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>61.81876122973768</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679324</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945191</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394256</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813573</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>104.5976587092992</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
